--- a/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -206,9 +206,6 @@
     <t>Mifos style</t>
   </si>
   <si>
-    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>frequencyintervalforrecalculation</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,8 +623,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="11">
         <v>42005</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -975,7 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -985,10 +987,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -98,18 +98,12 @@
     <t>maximumtranchecount</t>
   </si>
   <si>
-    <t>nominalinterestrateminimum</t>
-  </si>
-  <si>
     <t>numberofrepaymentsdefault</t>
   </si>
   <si>
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>termsvarybasedonloancycle</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>fundsource</t>
   </si>
   <si>
@@ -222,6 +213,15 @@
   </si>
   <si>
     <t>frequencydateforrecalculation</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -676,20 +676,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10000</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,277 +700,269 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="B27" s="11">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="11">
-        <v>42005</v>
+      <c r="B29" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -983,9 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -995,10 +985,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>frequencyintervalforrecalculation</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -305,6 +305,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,8 +748,8 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>62</v>
+      <c r="B16" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +826,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="11">
         <v>42005</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -863,7 +866,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -975,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -987,10 +990,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
